--- a/sumandos.xlsx
+++ b/sumandos.xlsx
@@ -363,8 +363,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
